--- a/Microsoft Excel/Tanvir/Day 09.xlsx
+++ b/Microsoft Excel/Tanvir/Day 09.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tarato/Documents/GitHub/Spreadsheet/Microsoft Excel/Tanvir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C875848-C506-5043-A127-088CCC4003FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DC1A1C-A9E3-1A48-9548-158D53B1382C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{9A9FABB5-BFF7-CC40-8C48-227C06D651C1}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="2" xr2:uid="{9A9FABB5-BFF7-CC40-8C48-227C06D651C1}"/>
   </bookViews>
   <sheets>
     <sheet name="And" sheetId="1" r:id="rId1"/>
     <sheet name="Average" sheetId="2" r:id="rId2"/>
+    <sheet name="AverageIF" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">AverageIF!$A$1:$C$11</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
   <si>
     <t xml:space="preserve">    Name</t>
   </si>
@@ -123,6 +127,39 @@
   </si>
   <si>
     <t xml:space="preserve">    Kasper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Bulbasaur</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Average Speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ivysaur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Venusaur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Charmander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Charmeleon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Charizard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Squirtle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Wartortle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Blastoise</t>
   </si>
 </sst>
 </file>
@@ -648,7 +685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B80CC6-8F01-194D-BAD0-1784AE6588A6}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -808,4 +845,162 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21FAD3A8-37A6-DF42-9FD6-ABBA666BDAC9}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <f>AVERAGEIF(B2:B10,E3,C2:C10)</f>
+        <v>61.666666666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>80</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <f>AVERAGEIF(B2:B10,E4,C2:C10)</f>
+        <v>81.666666666666671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>65</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <f>AVERAGEIF(B2:B10,E5,C2:C10)</f>
+        <v>59.666666666666664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C11" xr:uid="{21FAD3A8-37A6-DF42-9FD6-ABBA666BDAC9}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Microsoft Excel/Tanvir/Day 09.xlsx
+++ b/Microsoft Excel/Tanvir/Day 09.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tarato/Documents/GitHub/Spreadsheet/Microsoft Excel/Tanvir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DC1A1C-A9E3-1A48-9548-158D53B1382C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FD455B-433A-7F4D-A265-2549B60E7271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="2" xr2:uid="{9A9FABB5-BFF7-CC40-8C48-227C06D651C1}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="4" xr2:uid="{9A9FABB5-BFF7-CC40-8C48-227C06D651C1}"/>
   </bookViews>
   <sheets>
     <sheet name="And" sheetId="1" r:id="rId1"/>
     <sheet name="Average" sheetId="2" r:id="rId2"/>
     <sheet name="AverageIF" sheetId="3" r:id="rId3"/>
+    <sheet name="averageifs do later " sheetId="4" r:id="rId4"/>
+    <sheet name="Concat" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">AverageIF!$A$1:$C$11</definedName>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="68">
   <si>
     <t xml:space="preserve">    Name</t>
   </si>
@@ -160,6 +162,90 @@
   </si>
   <si>
     <t xml:space="preserve">    Blastoise</t>
+  </si>
+  <si>
+    <t>Total stats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mankey</t>
+  </si>
+  <si>
+    <t>Fighting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Poliwrath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Victreebel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Tentacool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Magneton</t>
+  </si>
+  <si>
+    <t>Electric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Dewgong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Cloyster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Onix</t>
+  </si>
+  <si>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Dragonair</t>
+  </si>
+  <si>
+    <t>Dragon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Pidgeotto</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Rattata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Beedrill</t>
+  </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Doduo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Kingler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Nidoqueen</t>
+  </si>
+  <si>
+    <t>Poison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Hitmonchan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Arbok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Gastly</t>
+  </si>
+  <si>
+    <t>Ghost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Magikarp</t>
   </si>
 </sst>
 </file>
@@ -851,7 +937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21FAD3A8-37A6-DF42-9FD6-ABBA666BDAC9}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -1003,4 +1089,274 @@
   <autoFilter ref="A1:C11" xr:uid="{21FAD3A8-37A6-DF42-9FD6-ABBA666BDAC9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E1BBDE-D4BD-C840-8E51-81A242420CCC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6966D5-6FE1-0447-B95B-7DD88A55B4DA}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="81.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2">
+        <v>305</v>
+      </c>
+      <c r="E2" t="str">
+        <f>_xlfn.CONCAT(A2:A9)</f>
+        <v xml:space="preserve">    Mankey    Poliwrath    Victreebel    Tentacool    Magneton    Dewgong    Cloyster    Onix</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>